--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\IgnyetFrameworkNamrataBranch\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA53C02-FCF2-453E-96D5-8D7E96266E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EF2973-501E-47E0-8312-F79EA9AF7F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{25EDE567-ABE6-4684-B40B-3692BCC47420}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{25EDE567-ABE6-4684-B40B-3692BCC47420}"/>
   </bookViews>
   <sheets>
     <sheet name="StageSetUp" sheetId="1" r:id="rId1"/>
     <sheet name="TagSetUp" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
   <si>
     <t>StageCode</t>
   </si>
@@ -63,9 +64,6 @@
     <t>ShortDescription</t>
   </si>
   <si>
-    <t>Testing003</t>
-  </si>
-  <si>
     <t>#03ebeb</t>
   </si>
   <si>
@@ -93,17 +91,146 @@
     <t>Tag created successfully!</t>
   </si>
   <si>
-    <t>User navigates to Tags Setup page and deletes a Tag</t>
-  </si>
-  <si>
-    <t>Testing004</t>
+    <t>#334</t>
+  </si>
+  <si>
+    <t>Navigates to Tags Setup page and deletes a Tag</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>Resume parser</t>
+  </si>
+  <si>
+    <t>Client portal</t>
+  </si>
+  <si>
+    <t>Off limits</t>
+  </si>
+  <si>
+    <t>Log an activity</t>
+  </si>
+  <si>
+    <t>Ignyte Intelligence</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Global Search</t>
+  </si>
+  <si>
+    <t>AG grid</t>
+  </si>
+  <si>
+    <t>Candidate pipeline</t>
+  </si>
+  <si>
+    <t>Workbench</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handover </t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Task Notification</t>
+  </si>
+  <si>
+    <t>Biling Workflow and Approval</t>
+  </si>
+  <si>
+    <t>Project cloning</t>
+  </si>
+  <si>
+    <t>BD cloning</t>
+  </si>
+  <si>
+    <t>BD to Project</t>
+  </si>
+  <si>
+    <t>Contact Enrichment</t>
+  </si>
+  <si>
+    <t>Test Automation - Report</t>
+  </si>
+  <si>
+    <t>Set Up module</t>
+  </si>
+  <si>
+    <t>Test Automation - Excel Utility</t>
+  </si>
+  <si>
+    <t>Test Automation - Jenkins Pipeline</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Testing194</t>
+  </si>
+  <si>
+    <t>Testing195</t>
+  </si>
+  <si>
+    <t>Testing196</t>
+  </si>
+  <si>
+    <t>Testing197</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>3.00PM</t>
+  </si>
+  <si>
+    <t>Testing0019</t>
+  </si>
+  <si>
+    <t>Testing0020</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +248,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -143,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -179,11 +312,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -201,6 +347,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBB2CD7-1211-4661-BC41-B5727E211E3F}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -583,42 +756,42 @@
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11">
-        <v>1111</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11">
-        <v>1112</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -636,13 +809,13 @@
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -652,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E03621-FF1C-435F-B75C-F9DDC9D92211}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -669,48 +842,600 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A39E72E-753B-432B-8549-4F3AA3D7FA5A}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="12"/>
+    <col min="2" max="2" width="27.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.06640625" style="12"/>
+    <col min="5" max="5" width="13" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="18">
+        <v>45834</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18">
+        <v>45834</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18">
+        <v>45846</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18">
+        <v>45835</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18">
+        <v>45845</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18">
+        <v>45845</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18">
+        <v>45845</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18">
+        <v>45841</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="B18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18">
+        <v>45841</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18">
+        <v>45842</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18">
+        <v>45842</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18">
+        <v>45838</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="18">
+        <v>45839</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="18">
+        <v>45840</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="18">
+        <v>45840</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\IgnyetFrameworkNamrataBranch\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EF2973-501E-47E0-8312-F79EA9AF7F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D493EB-278F-47C3-9C74-47AD058288D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{25EDE567-ABE6-4684-B40B-3692BCC47420}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{25EDE567-ABE6-4684-B40B-3692BCC47420}"/>
   </bookViews>
   <sheets>
     <sheet name="StageSetUp" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>StageCode</t>
   </si>
@@ -214,16 +215,34 @@
     <t>3.00PM</t>
   </si>
   <si>
-    <t>Testing0019</t>
-  </si>
-  <si>
-    <t>Testing0020</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>KT Given</t>
+  </si>
+  <si>
+    <t>Project Folder Structure</t>
+  </si>
+  <si>
+    <t>KT is pending</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/meetingrecap?driveId=b%21Zljma3d-EEW203DXVIhVGHzD7HzqooRLo9ZvzPlNzKBCn4f9DlMfRYta6kO--jNU&amp;driveItemId=017F4YK4F7AEPKQQEWUNELFAV4D4OBXLZE&amp;sitePath=https%3A%2F%2Fkingsleygate2015-my.sharepoint.com%2F%3Av%3A%2Fg%2Fpersonal%2Fnmehta_kingsleygate_com%2FEb8BHqhAlqNIsoK8HxwbryQBeSwVjw85RYLR09hXHhvOvQ&amp;fileUrl=https%3A%2F%2Fkingsleygate2015-my.sharepoint.com%2Fpersonal%2Fnmehta_kingsleygate_com%2FDocuments%2FRecordings%2FAthena%2520Handover-20250626_150234-Meeting%2520Recording.mp4%3Fweb%3D1&amp;iCalUid=040000008200E00074C5B7101A82E00800000000980F005A93E5DB01000000000000000010000000991E5243E8E65B4EA95FF7A8ED3C382C&amp;threadId=19%3Ameeting_ZGViYmM3MDctZjBlNS00ODU1LTkzNDUtMzk0YTE1YjRmNDRi%40thread.v2&amp;organizerId=a18a72d0-6e8f-4006-b150-63992ccbac80&amp;tenantId=4c6ca257-d9e9-4ae1-b4ab-63e669a6e8b8&amp;callId=011c312e-551b-4953-b989-5a4249a7a201&amp;threadType=Meeting&amp;meetingType=Scheduled&amp;subType=RecapSharingLink_RecapCore</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/meetingrecap?driveId=b%21Zljma3d-EEW203DXVIhVGHzD7HzqooRLo9ZvzPlNzKBCn4f9DlMfRYta6kO--jNU&amp;driveItemId=017F4YK4G5MSXHS4GS4RBI72EMG7ZR6PCE&amp;sitePath=https%3A%2F%2Fkingsleygate2015-my.sharepoint.com%2F%3Av%3A%2Fg%2Fpersonal%2Fnmehta_kingsleygate_com%2FEd1krnlw0uRCj-iMN_MfPEQBou_zLEnG2y7Ol7jQaeGjcQ&amp;fileUrl=https%3A%2F%2Fkingsleygate2015-my.sharepoint.com%2F%3Av%3A%2Fg%2Fpersonal%2Fnmehta_kingsleygate_com%2FEd1krnlw0uRCj-iMN_MfPEQBou_zLEnG2y7Ol7jQaeGjcQ&amp;iCalUid=040000008200E00074C5B7101A82E008000000007566423E8BE6DB010000000000000000100000001A17827147AC794D9CE51FDC42311832&amp;threadId=19%3Ameeting_MGYzNmUxNjMtYjE1OS00NTU0LWFlMzItNzdmOTBhYWNkOTcy%40thread.v2&amp;organizerId=a18a72d0-6e8f-4006-b150-63992ccbac80&amp;tenantId=4c6ca257-d9e9-4ae1-b4ab-63e669a6e8b8&amp;callId=5e04f7ba-6f18-4a3f-aeb8-1da00ca8cf87&amp;threadType=Meeting&amp;meetingType=Scheduled&amp;subType=RecapSharingLink_RecapChiclet</t>
+  </si>
+  <si>
+    <t>Testing0023</t>
+  </si>
+  <si>
+    <t>Testing0024</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -256,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +291,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -374,6 +405,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBB2CD7-1211-4661-BC41-B5727E211E3F}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -756,16 +797,16 @@
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>9</v>
@@ -776,16 +817,16 @@
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>9</v>
@@ -809,13 +850,13 @@
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -942,10 +983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A39E72E-753B-432B-8549-4F3AA3D7FA5A}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -954,10 +995,12 @@
     <col min="2" max="2" width="27.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.06640625" style="12"/>
     <col min="5" max="5" width="13" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="20" customWidth="1"/>
+    <col min="7" max="8" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
@@ -974,13 +1017,19 @@
         <v>49</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I1" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -990,20 +1039,26 @@
       <c r="C2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="21">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="18">
         <v>45834</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I2" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1013,248 +1068,288 @@
       <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="21">
         <v>1</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18">
+      <c r="E3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="18">
         <v>45834</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="16">
-        <v>2</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18">
-        <v>45846</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="18">
+        <v>45835</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I4" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18">
+      <c r="E5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="18">
         <v>45835</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
       <c r="E6" s="19"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F6" s="19"/>
+      <c r="G6" s="18">
+        <v>45845</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="18">
-        <v>45845</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F7" s="19"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="14"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="14"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="14"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="14"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="14"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="14"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="16">
-        <v>2</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D14" s="16"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="18">
-        <v>45845</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F14" s="19"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="14"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="18">
+      <c r="F16" s="19"/>
+      <c r="G16" s="18">
         <v>45845</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I16" s="1"/>
+      <c r="J16" s="23"/>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>33</v>
@@ -1263,19 +1358,21 @@
         <v>2</v>
       </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="18">
-        <v>45841</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="18">
+        <v>45845</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>33</v>
@@ -1284,19 +1381,21 @@
         <v>2</v>
       </c>
       <c r="E18" s="19"/>
-      <c r="F18" s="18">
-        <v>45841</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="18">
+        <v>45846</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>33</v>
@@ -1305,19 +1404,21 @@
         <v>2</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="18">
-        <v>45842</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="18">
+        <v>45841</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>33</v>
@@ -1325,51 +1426,67 @@
       <c r="D20" s="16">
         <v>2</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18">
-        <v>45842</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="E20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18">
+        <v>45841</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="D21" s="16">
+        <v>2</v>
+      </c>
       <c r="E21" s="19"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F21" s="19"/>
+      <c r="G21" s="18">
+        <v>45842</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18">
-        <v>45838</v>
-      </c>
-      <c r="G22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18">
+        <v>45842</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -1379,20 +1496,22 @@
       <c r="C23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="21">
         <v>1</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19"/>
+      <c r="G23" s="18">
         <v>45839</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="H23" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -1402,20 +1521,22 @@
       <c r="C24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="21">
         <v>1</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19"/>
+      <c r="G24" s="18">
         <v>45840</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="H24" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -1425,20 +1546,51 @@
       <c r="C25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="22">
         <v>1</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19"/>
+      <c r="G25" s="18">
         <v>45840</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="H25" s="18" t="s">
         <v>57</v>
       </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="21">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18">
+        <v>45842</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\IgnyetFrameworkNamrataBranch\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D493EB-278F-47C3-9C74-47AD058288D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CAF2FC-BF40-4246-A9E9-2511CA58FDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{25EDE567-ABE6-4684-B40B-3692BCC47420}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{25EDE567-ABE6-4684-B40B-3692BCC47420}"/>
   </bookViews>
   <sheets>
     <sheet name="StageSetUp" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,16 +232,16 @@
     <t>https://teams.microsoft.com/l/meetingrecap?driveId=b%21Zljma3d-EEW203DXVIhVGHzD7HzqooRLo9ZvzPlNzKBCn4f9DlMfRYta6kO--jNU&amp;driveItemId=017F4YK4G5MSXHS4GS4RBI72EMG7ZR6PCE&amp;sitePath=https%3A%2F%2Fkingsleygate2015-my.sharepoint.com%2F%3Av%3A%2Fg%2Fpersonal%2Fnmehta_kingsleygate_com%2FEd1krnlw0uRCj-iMN_MfPEQBou_zLEnG2y7Ol7jQaeGjcQ&amp;fileUrl=https%3A%2F%2Fkingsleygate2015-my.sharepoint.com%2F%3Av%3A%2Fg%2Fpersonal%2Fnmehta_kingsleygate_com%2FEd1krnlw0uRCj-iMN_MfPEQBou_zLEnG2y7Ol7jQaeGjcQ&amp;iCalUid=040000008200E00074C5B7101A82E008000000007566423E8BE6DB010000000000000000100000001A17827147AC794D9CE51FDC42311832&amp;threadId=19%3Ameeting_MGYzNmUxNjMtYjE1OS00NTU0LWFlMzItNzdmOTBhYWNkOTcy%40thread.v2&amp;organizerId=a18a72d0-6e8f-4006-b150-63992ccbac80&amp;tenantId=4c6ca257-d9e9-4ae1-b4ab-63e669a6e8b8&amp;callId=5e04f7ba-6f18-4a3f-aeb8-1da00ca8cf87&amp;threadType=Meeting&amp;meetingType=Scheduled&amp;subType=RecapSharingLink_RecapChiclet</t>
   </si>
   <si>
-    <t>Testing0023</t>
-  </si>
-  <si>
-    <t>Testing0024</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>Testing0025</t>
+  </si>
+  <si>
+    <t>Testing0026</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
 </sst>
 </file>
@@ -752,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBB2CD7-1211-4661-BC41-B5727E211E3F}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -985,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A39E72E-753B-432B-8549-4F3AA3D7FA5A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22:L22"/>
     </sheetView>
   </sheetViews>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\IgnyetFrameworkNamrataBranch\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CAF2FC-BF40-4246-A9E9-2511CA58FDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D389DFEA-FC3B-46FE-A772-4FCF4CA701BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{25EDE567-ABE6-4684-B40B-3692BCC47420}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{25EDE567-ABE6-4684-B40B-3692BCC47420}"/>
   </bookViews>
   <sheets>
     <sheet name="StageSetUp" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
   <si>
     <t>StageCode</t>
   </si>
@@ -751,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBB2CD7-1211-4661-BC41-B5727E211E3F}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A39E72E-753B-432B-8549-4F3AA3D7FA5A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1380,7 +1380,9 @@
         <v>2</v>
       </c>
       <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="G18" s="18">
         <v>45846</v>
       </c>
@@ -1428,7 +1430,9 @@
       <c r="E20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="G20" s="18">
         <v>45841</v>
       </c>
@@ -1476,7 +1480,9 @@
       <c r="E22" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="G22" s="18">
         <v>45842</v>
       </c>
@@ -1501,7 +1507,9 @@
       <c r="E23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="G23" s="18">
         <v>45839</v>
       </c>
@@ -1526,7 +1534,9 @@
       <c r="E24" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="G24" s="18">
         <v>45840</v>
       </c>
@@ -1576,7 +1586,9 @@
       <c r="E26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="G26" s="18">
         <v>45842</v>
       </c>
